--- a/spare_parts/3070.xlsx
+++ b/spare_parts/3070.xlsx
@@ -1885,18 +1885,28 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="B13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>245</v>
+      </c>
       <c r="G13" s="2" t="n"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="2" t="n"/>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>

--- a/spare_parts/3070.xlsx
+++ b/spare_parts/3070.xlsx
@@ -1904,18 +1904,28 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="B14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>246</v>
+      </c>
       <c r="G14" s="2" t="n"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="2" t="n"/>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>

--- a/spare_parts/3070.xlsx
+++ b/spare_parts/3070.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="10"/>
+    <workbookView activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>загальна інформація</t>
   </si>
@@ -127,25 +127,19 @@
     <t>підпис бухгалтера</t>
   </si>
   <si>
-    <t>400005068</t>
+    <t>400004782</t>
   </si>
   <si>
-    <t>Encoder BHK 03.05A 1000</t>
+    <t>Čelist MIM2  (A355)</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>400002114</t>
+    <t>400003034</t>
   </si>
   <si>
-    <t>Řemen ozubený 16-T5-455   výška 4mm</t>
-  </si>
-  <si>
-    <t>400002092</t>
-  </si>
-  <si>
-    <t>measuring ring</t>
+    <t>Sonotroda Minic NC</t>
   </si>
 </sst>
 </file>
@@ -327,7 +321,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="0" name="Звичайний" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -976,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1055,65 +1049,35 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>80001841</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1230</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
       <c r="G6" s="1" t="n"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>80001841</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1230</v>
-      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
       <c r="G7" s="1" t="n"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>80001841</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1230</v>
-      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
@@ -1601,7 +1565,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1679,35 +1643,65 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>80001840</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="G6" s="1" t="n"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>80001841</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="G7" s="1" t="n"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>80001952</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="G8" s="1" t="n"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
@@ -1897,8 +1891,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P16:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -3692,8 +3686,8 @@
     <col customWidth="1" max="6" min="6" style="16" width="14.28515625"/>
     <col customWidth="1" max="7" min="7" style="16" width="10.42578125"/>
     <col customWidth="1" max="8" min="8" style="16" width="2.42578125"/>
-    <col customWidth="1" max="10" min="9" style="16" width="9.140625"/>
-    <col customWidth="1" max="16384" min="11" style="16" width="9.140625"/>
+    <col customWidth="1" max="11" min="9" style="16" width="9.140625"/>
+    <col customWidth="1" max="16384" min="12" style="16" width="9.140625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18" r="1" s="16" spans="1:7">
